--- a/www/IndicatorsPerCountry/Sweden_GDPperCapita_TerritorialRef_1946_2012_CCode_752.xlsx
+++ b/www/IndicatorsPerCountry/Sweden_GDPperCapita_TerritorialRef_1946_2012_CCode_752.xlsx
@@ -723,13 +723,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Sweden_GDPperCapita_TerritorialRef_1946_2012_CCode_752.xlsx
+++ b/www/IndicatorsPerCountry/Sweden_GDPperCapita_TerritorialRef_1946_2012_CCode_752.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="422">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,664 +36,1213 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>994.612439467</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1031.76780305</t>
-  </si>
-  <si>
-    <t>761.41109972</t>
-  </si>
-  <si>
-    <t>965.504371971</t>
-  </si>
-  <si>
-    <t>1339.91508378</t>
-  </si>
-  <si>
-    <t>1280.61551234</t>
-  </si>
-  <si>
-    <t>972.508323122</t>
-  </si>
-  <si>
-    <t>970.475483821</t>
-  </si>
-  <si>
-    <t>856.64057267</t>
-  </si>
-  <si>
-    <t>849.482633156</t>
-  </si>
-  <si>
-    <t>888.764141612</t>
-  </si>
-  <si>
-    <t>879.98678231</t>
-  </si>
-  <si>
-    <t>822.643224311</t>
-  </si>
-  <si>
-    <t>875.320053523</t>
-  </si>
-  <si>
-    <t>884.991735249</t>
-  </si>
-  <si>
-    <t>848.247071961</t>
-  </si>
-  <si>
-    <t>802.933587945</t>
-  </si>
-  <si>
-    <t>766.27567578</t>
-  </si>
-  <si>
-    <t>827.95330121</t>
-  </si>
-  <si>
-    <t>889.40638986</t>
-  </si>
-  <si>
-    <t>832.563387235</t>
-  </si>
-  <si>
-    <t>848.475683454</t>
-  </si>
-  <si>
-    <t>855.008005863</t>
-  </si>
-  <si>
-    <t>884.801898006</t>
-  </si>
-  <si>
-    <t>902.059983065</t>
-  </si>
-  <si>
-    <t>875.982396045</t>
-  </si>
-  <si>
-    <t>883.196478439</t>
-  </si>
-  <si>
-    <t>875.497623576</t>
-  </si>
-  <si>
-    <t>887.672651304</t>
-  </si>
-  <si>
-    <t>914.384332365</t>
-  </si>
-  <si>
-    <t>918.674857101</t>
-  </si>
-  <si>
-    <t>908.777809904</t>
-  </si>
-  <si>
-    <t>933.424580145</t>
-  </si>
-  <si>
-    <t>958.220788541</t>
-  </si>
-  <si>
-    <t>960.508432073</t>
-  </si>
-  <si>
-    <t>915.473428188</t>
-  </si>
-  <si>
-    <t>931.66763869</t>
-  </si>
-  <si>
-    <t>944.812767014</t>
-  </si>
-  <si>
-    <t>921.331078911</t>
-  </si>
-  <si>
-    <t>939.259610528</t>
-  </si>
-  <si>
-    <t>914.280663255</t>
-  </si>
-  <si>
-    <t>943.146022007</t>
-  </si>
-  <si>
-    <t>955.392151722</t>
-  </si>
-  <si>
-    <t>951.728630377</t>
-  </si>
-  <si>
-    <t>982.455047328</t>
-  </si>
-  <si>
-    <t>974.727337774</t>
-  </si>
-  <si>
-    <t>959.412171052</t>
-  </si>
-  <si>
-    <t>970.072220528</t>
-  </si>
-  <si>
-    <t>983.920889484</t>
-  </si>
-  <si>
-    <t>971.504115615</t>
-  </si>
-  <si>
-    <t>925.734495425</t>
-  </si>
-  <si>
-    <t>945.837286083</t>
-  </si>
-  <si>
-    <t>986.734342445</t>
-  </si>
-  <si>
-    <t>1009.59999338</t>
-  </si>
-  <si>
-    <t>974.883098629</t>
-  </si>
-  <si>
-    <t>1000.44323319</t>
-  </si>
-  <si>
-    <t>1011.12919236</t>
-  </si>
-  <si>
-    <t>1048.54382409</t>
-  </si>
-  <si>
-    <t>1076.13335915</t>
-  </si>
-  <si>
-    <t>1054.66037247</t>
-  </si>
-  <si>
-    <t>1032.39930296</t>
-  </si>
-  <si>
-    <t>1046.20384886</t>
-  </si>
-  <si>
-    <t>1056.70506512</t>
-  </si>
-  <si>
-    <t>1122.08711911</t>
-  </si>
-  <si>
-    <t>1110.57614986</t>
-  </si>
-  <si>
-    <t>1141.10596396</t>
-  </si>
-  <si>
-    <t>1154.71526536</t>
-  </si>
-  <si>
-    <t>1196.35600422</t>
-  </si>
-  <si>
-    <t>1218.24838209</t>
-  </si>
-  <si>
-    <t>1170.46862565</t>
-  </si>
-  <si>
-    <t>1134.39324856</t>
-  </si>
-  <si>
-    <t>1183.36723756</t>
-  </si>
-  <si>
-    <t>1204.41293245</t>
-  </si>
-  <si>
-    <t>1225.28745378</t>
-  </si>
-  <si>
-    <t>1205.11962148</t>
-  </si>
-  <si>
-    <t>1223.14927511</t>
-  </si>
-  <si>
-    <t>1113.3742024</t>
-  </si>
-  <si>
-    <t>1192.9257296</t>
-  </si>
-  <si>
-    <t>1345.06315558</t>
-  </si>
-  <si>
-    <t>1391.75852301</t>
-  </si>
-  <si>
-    <t>1416.51712447</t>
-  </si>
-  <si>
-    <t>1432.93567435</t>
-  </si>
-  <si>
-    <t>1487.14583066</t>
-  </si>
-  <si>
-    <t>1434.15381406</t>
-  </si>
-  <si>
-    <t>1524.97533572</t>
-  </si>
-  <si>
-    <t>1490.55796883</t>
-  </si>
-  <si>
-    <t>1437.17888085</t>
-  </si>
-  <si>
-    <t>1516.22352568</t>
-  </si>
-  <si>
-    <t>1480.23902178</t>
-  </si>
-  <si>
-    <t>1533.36309372</t>
-  </si>
-  <si>
-    <t>1476.72662452</t>
-  </si>
-  <si>
-    <t>1588.43638407</t>
-  </si>
-  <si>
-    <t>1554.13691048</t>
-  </si>
-  <si>
-    <t>1582.10059251</t>
-  </si>
-  <si>
-    <t>1597.66569657</t>
-  </si>
-  <si>
-    <t>1550.18674417</t>
-  </si>
-  <si>
-    <t>1575.46212946</t>
-  </si>
-  <si>
-    <t>1598.87535028</t>
-  </si>
-  <si>
-    <t>1635.49838648</t>
-  </si>
-  <si>
-    <t>1724.45255071</t>
-  </si>
-  <si>
-    <t>1701.83612482</t>
-  </si>
-  <si>
-    <t>1743.49436223</t>
-  </si>
-  <si>
-    <t>1751.15572331</t>
-  </si>
-  <si>
-    <t>1836.26479401</t>
-  </si>
-  <si>
-    <t>1884.25740372</t>
-  </si>
-  <si>
-    <t>1958.11720139</t>
-  </si>
-  <si>
-    <t>2024.75859021</t>
-  </si>
-  <si>
-    <t>2074.67299779</t>
-  </si>
-  <si>
-    <t>2083.0276272</t>
-  </si>
-  <si>
-    <t>2137.08446679</t>
-  </si>
-  <si>
-    <t>2108.93373917</t>
-  </si>
-  <si>
-    <t>2219.65533902</t>
-  </si>
-  <si>
-    <t>2257.83168837</t>
-  </si>
-  <si>
-    <t>2225.41319727</t>
-  </si>
-  <si>
-    <t>2403.43338774</t>
-  </si>
-  <si>
-    <t>2563.37701197</t>
-  </si>
-  <si>
-    <t>2484.40408563</t>
-  </si>
-  <si>
-    <t>2497.31799556</t>
-  </si>
-  <si>
-    <t>2543.12851493</t>
-  </si>
-  <si>
-    <t>2606.40827861</t>
-  </si>
-  <si>
-    <t>2705.30797137</t>
-  </si>
-  <si>
-    <t>2874.07899779</t>
-  </si>
-  <si>
-    <t>2935.0663897</t>
-  </si>
-  <si>
-    <t>3036.99839189</t>
-  </si>
-  <si>
-    <t>3205.49445299</t>
-  </si>
-  <si>
-    <t>3010.52537806</t>
-  </si>
-  <si>
-    <t>2782.24513657</t>
-  </si>
-  <si>
-    <t>2824.65547661</t>
-  </si>
-  <si>
-    <t>3004.1671707</t>
-  </si>
-  <si>
-    <t>2849.53342791</t>
-  </si>
-  <si>
-    <t>3053.63986</t>
-  </si>
-  <si>
-    <t>3151.3392623</t>
-  </si>
-  <si>
-    <t>3366.49875894</t>
-  </si>
-  <si>
-    <t>3442.96004974</t>
-  </si>
-  <si>
-    <t>3610.61607535</t>
-  </si>
-  <si>
-    <t>3728.04024023</t>
-  </si>
-  <si>
-    <t>3834.65934614</t>
-  </si>
-  <si>
-    <t>4062.72755775</t>
-  </si>
-  <si>
-    <t>4237.6909806</t>
-  </si>
-  <si>
-    <t>4129.22415453</t>
-  </si>
-  <si>
-    <t>3967.88426459</t>
-  </si>
-  <si>
-    <t>4033.43306822</t>
-  </si>
-  <si>
-    <t>4294.08369829</t>
-  </si>
-  <si>
-    <t>4491.72838799</t>
-  </si>
-  <si>
-    <t>4640.37497233</t>
-  </si>
-  <si>
-    <t>4754.856294</t>
-  </si>
-  <si>
-    <t>4900.86995617</t>
-  </si>
-  <si>
-    <t>5251.15589706</t>
-  </si>
-  <si>
-    <t>4854.6376797</t>
-  </si>
-  <si>
-    <t>4711.67296085</t>
-  </si>
-  <si>
-    <t>4740.52013337</t>
-  </si>
-  <si>
-    <t>4880.28536146</t>
-  </si>
-  <si>
-    <t>5011.08046421</t>
-  </si>
-  <si>
-    <t>5145.11572409</t>
-  </si>
-  <si>
-    <t>5645.51803762</t>
-  </si>
-  <si>
-    <t>6091.26165976</t>
-  </si>
-  <si>
-    <t>6161.89953312</t>
-  </si>
-  <si>
-    <t>6353.20540168</t>
-  </si>
-  <si>
-    <t>6739.22620584</t>
-  </si>
-  <si>
-    <t>6948.84508747</t>
-  </si>
-  <si>
-    <t>6996.1135042</t>
-  </si>
-  <si>
-    <t>7144.57028276</t>
-  </si>
-  <si>
-    <t>7402.10355875</t>
-  </si>
-  <si>
-    <t>7565.55348859</t>
-  </si>
-  <si>
-    <t>7797.06202022</t>
-  </si>
-  <si>
-    <t>8092.4251066</t>
-  </si>
-  <si>
-    <t>8082.85442035</t>
-  </si>
-  <si>
-    <t>8287.93016619</t>
-  </si>
-  <si>
-    <t>8687.50334207</t>
-  </si>
-  <si>
-    <t>9136.96808511</t>
-  </si>
-  <si>
-    <t>9468.7757469</t>
-  </si>
-  <si>
-    <t>9916.85000519</t>
-  </si>
-  <si>
-    <t>10515.3791434</t>
-  </si>
-  <si>
-    <t>10815.1826063</t>
-  </si>
-  <si>
-    <t>10935.6028587</t>
-  </si>
-  <si>
-    <t>11219.2152193</t>
-  </si>
-  <si>
-    <t>11561.2306028</t>
-  </si>
-  <si>
-    <t>12055.1906245</t>
-  </si>
-  <si>
-    <t>12716.3425673</t>
-  </si>
-  <si>
-    <t>12748.4308493</t>
-  </si>
-  <si>
-    <t>13001.751969</t>
-  </si>
-  <si>
-    <t>13493.5607127</t>
-  </si>
-  <si>
-    <t>13884.5863519</t>
-  </si>
-  <si>
-    <t>14183.339294</t>
-  </si>
-  <si>
-    <t>14281.6313177</t>
-  </si>
-  <si>
-    <t>14003.6235177</t>
-  </si>
-  <si>
-    <t>14207.361723</t>
-  </si>
-  <si>
-    <t>14721.0178304</t>
-  </si>
-  <si>
-    <t>14936.5800009</t>
-  </si>
-  <si>
-    <t>14916.5493859</t>
-  </si>
-  <si>
-    <t>15057.5477523</t>
-  </si>
-  <si>
-    <t>15314.5084121</t>
-  </si>
-  <si>
-    <t>15908.3117774</t>
-  </si>
-  <si>
-    <t>16188.5466604</t>
-  </si>
-  <si>
-    <t>16505.2295603</t>
-  </si>
-  <si>
-    <t>16948.8446102</t>
-  </si>
-  <si>
-    <t>17232.2754784</t>
-  </si>
-  <si>
-    <t>17524.0550392</t>
-  </si>
-  <si>
-    <t>17608.902407</t>
-  </si>
-  <si>
-    <t>17276.2920637</t>
-  </si>
-  <si>
-    <t>16969.0028639</t>
-  </si>
-  <si>
-    <t>16524.2779339</t>
-  </si>
-  <si>
-    <t>17066.2651489</t>
-  </si>
-  <si>
-    <t>17645.7176198</t>
-  </si>
-  <si>
-    <t>17901.289103</t>
-  </si>
-  <si>
-    <t>18374.9935376</t>
-  </si>
-  <si>
-    <t>19136.7700513</t>
-  </si>
-  <si>
-    <t>20012.5300372</t>
-  </si>
-  <si>
-    <t>20871.2465975</t>
-  </si>
-  <si>
-    <t>21096.0534322</t>
-  </si>
-  <si>
-    <t>21585.5254194</t>
-  </si>
-  <si>
-    <t>22049.9782059</t>
-  </si>
-  <si>
-    <t>22942.6121695</t>
-  </si>
-  <si>
-    <t>23627.3677288</t>
-  </si>
-  <si>
-    <t>24602.1471508</t>
-  </si>
-  <si>
-    <t>25376.7418994</t>
-  </si>
-  <si>
-    <t>25181.2039061</t>
-  </si>
-  <si>
-    <t>23877.5151358</t>
-  </si>
-  <si>
-    <t>25306.3711282</t>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>2267</t>
+  </si>
+  <si>
+    <t>2570</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>2251</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1565</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1419</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1664</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1739</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1670</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1659</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1824</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1371</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>1573</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>1484</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1562</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2259</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>2370</t>
+  </si>
+  <si>
+    <t>2286</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>2377</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2416</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>2531</t>
+  </si>
+  <si>
+    <t>2477</t>
+  </si>
+  <si>
+    <t>2522</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>2471</t>
+  </si>
+  <si>
+    <t>2511</t>
+  </si>
+  <si>
+    <t>2549</t>
+  </si>
+  <si>
+    <t>2606</t>
+  </si>
+  <si>
+    <t>2748</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>2927</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3121</t>
+  </si>
+  <si>
+    <t>3228</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>3320</t>
+  </si>
+  <si>
+    <t>3406</t>
+  </si>
+  <si>
+    <t>3362</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>3599</t>
+  </si>
+  <si>
+    <t>3547</t>
+  </si>
+  <si>
+    <t>3830</t>
+  </si>
+  <si>
+    <t>4085</t>
+  </si>
+  <si>
+    <t>3959</t>
+  </si>
+  <si>
+    <t>3980</t>
+  </si>
+  <si>
+    <t>4053</t>
+  </si>
+  <si>
+    <t>4154</t>
+  </si>
+  <si>
+    <t>4312</t>
+  </si>
+  <si>
+    <t>4581</t>
+  </si>
+  <si>
+    <t>4678</t>
+  </si>
+  <si>
+    <t>4841</t>
+  </si>
+  <si>
+    <t>5109</t>
+  </si>
+  <si>
+    <t>4799</t>
+  </si>
+  <si>
+    <t>4434</t>
+  </si>
+  <si>
+    <t>4503</t>
+  </si>
+  <si>
+    <t>4788</t>
+  </si>
+  <si>
+    <t>4543</t>
+  </si>
+  <si>
+    <t>4868</t>
+  </si>
+  <si>
+    <t>5023</t>
+  </si>
+  <si>
+    <t>5365</t>
+  </si>
+  <si>
+    <t>5488</t>
+  </si>
+  <si>
+    <t>5756</t>
+  </si>
+  <si>
+    <t>5942</t>
+  </si>
+  <si>
+    <t>6113</t>
+  </si>
+  <si>
+    <t>6476</t>
+  </si>
+  <si>
+    <t>6755</t>
+  </si>
+  <si>
+    <t>6582</t>
+  </si>
+  <si>
+    <t>6325</t>
+  </si>
+  <si>
+    <t>6429</t>
+  </si>
+  <si>
+    <t>6845</t>
+  </si>
+  <si>
+    <t>7160</t>
+  </si>
+  <si>
+    <t>7396</t>
+  </si>
+  <si>
+    <t>7579</t>
+  </si>
+  <si>
+    <t>7812</t>
+  </si>
+  <si>
+    <t>8370</t>
+  </si>
+  <si>
+    <t>7739</t>
+  </si>
+  <si>
+    <t>7511</t>
+  </si>
+  <si>
+    <t>7557</t>
+  </si>
+  <si>
+    <t>7779</t>
+  </si>
+  <si>
+    <t>7987</t>
+  </si>
+  <si>
+    <t>8201</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>9709</t>
+  </si>
+  <si>
+    <t>9822</t>
+  </si>
+  <si>
+    <t>10127</t>
+  </si>
+  <si>
+    <t>10742</t>
+  </si>
+  <si>
+    <t>11077</t>
+  </si>
+  <si>
+    <t>11152</t>
+  </si>
+  <si>
+    <t>11389</t>
+  </si>
+  <si>
+    <t>11799</t>
+  </si>
+  <si>
+    <t>12060</t>
+  </si>
+  <si>
+    <t>12428</t>
+  </si>
+  <si>
+    <t>12899</t>
+  </si>
+  <si>
+    <t>12884</t>
+  </si>
+  <si>
+    <t>13211</t>
+  </si>
+  <si>
+    <t>13849</t>
+  </si>
+  <si>
+    <t>14564</t>
+  </si>
+  <si>
+    <t>15093</t>
+  </si>
+  <si>
+    <t>15808</t>
+  </si>
+  <si>
+    <t>16761</t>
+  </si>
+  <si>
+    <t>17239</t>
+  </si>
+  <si>
+    <t>17432</t>
+  </si>
+  <si>
+    <t>17883</t>
+  </si>
+  <si>
+    <t>18428</t>
+  </si>
+  <si>
+    <t>19215</t>
+  </si>
+  <si>
+    <t>20269</t>
+  </si>
+  <si>
+    <t>20320</t>
+  </si>
+  <si>
+    <t>20725</t>
+  </si>
+  <si>
+    <t>21509</t>
+  </si>
+  <si>
+    <t>22132</t>
+  </si>
+  <si>
+    <t>22607</t>
+  </si>
+  <si>
+    <t>22765</t>
+  </si>
+  <si>
+    <t>22322</t>
+  </si>
+  <si>
+    <t>22646</t>
+  </si>
+  <si>
+    <t>23465</t>
+  </si>
+  <si>
+    <t>23809</t>
+  </si>
+  <si>
+    <t>23777</t>
+  </si>
+  <si>
+    <t>24002</t>
+  </si>
+  <si>
+    <t>24412</t>
+  </si>
+  <si>
+    <t>25357</t>
+  </si>
+  <si>
+    <t>25805</t>
+  </si>
+  <si>
+    <t>26309</t>
+  </si>
+  <si>
+    <t>27016</t>
+  </si>
+  <si>
+    <t>27468</t>
+  </si>
+  <si>
+    <t>27933</t>
+  </si>
+  <si>
+    <t>28068</t>
+  </si>
+  <si>
+    <t>27614.0346333966</t>
+  </si>
+  <si>
+    <t>27198.52871669</t>
+  </si>
+  <si>
+    <t>26558.825037288</t>
+  </si>
+  <si>
+    <t>27505.9553659054</t>
+  </si>
+  <si>
+    <t>28519.4440615386</t>
+  </si>
+  <si>
+    <t>29012.1047002605</t>
+  </si>
+  <si>
+    <t>29862.6666885372</t>
+  </si>
+  <si>
+    <t>31187.1646276556</t>
+  </si>
+  <si>
+    <t>32705.214948347</t>
+  </si>
+  <si>
+    <t>34202.6042369012</t>
+  </si>
+  <si>
+    <t>34666.662647202</t>
+  </si>
+  <si>
+    <t>35569.7739556535</t>
+  </si>
+  <si>
+    <t>36435.7540472928</t>
+  </si>
+  <si>
+    <t>38016.0634678384</t>
+  </si>
+  <si>
+    <t>39258.9920102221</t>
+  </si>
+  <si>
+    <t>40992.2994828768</t>
+  </si>
+  <si>
+    <t>42399.8444419738</t>
+  </si>
+  <si>
+    <t>42189.9639876837</t>
+  </si>
+  <si>
+    <t>40116.3106765379</t>
+  </si>
+  <si>
+    <t>42634.7544626351</t>
+  </si>
+  <si>
+    <t>42079</t>
+  </si>
+  <si>
+    <t>41650</t>
+  </si>
+  <si>
+    <t>41811</t>
+  </si>
+  <si>
+    <t>42476</t>
+  </si>
+  <si>
+    <t>43746</t>
+  </si>
+  <si>
+    <t>44659</t>
   </si>
   <si>
     <t>Description</t>
@@ -808,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1550.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -825,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1551.0</v>
+        <v>1501.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -842,10 +1391,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1552.0</v>
+        <v>1502.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -859,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1553.0</v>
+        <v>1503.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -876,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1554.0</v>
+        <v>1504.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -893,10 +1442,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1555.0</v>
+        <v>1505.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -910,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1556.0</v>
+        <v>1506.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -927,10 +1476,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1557.0</v>
+        <v>1507.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -944,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1558.0</v>
+        <v>1508.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -961,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1559.0</v>
+        <v>1509.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -978,10 +1527,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1560.0</v>
+        <v>1510.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -995,10 +1544,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1561.0</v>
+        <v>1511.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1012,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1562.0</v>
+        <v>1512.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1029,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1563.0</v>
+        <v>1513.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1046,10 +1595,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1564.0</v>
+        <v>1514.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1063,10 +1612,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1565.0</v>
+        <v>1515.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1080,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1566.0</v>
+        <v>1516.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1097,10 +1646,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1567.0</v>
+        <v>1517.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1114,10 +1663,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1568.0</v>
+        <v>1518.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1131,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1569.0</v>
+        <v>1519.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1148,10 +1697,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1570.0</v>
+        <v>1520.0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1165,10 +1714,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1571.0</v>
+        <v>1521.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1182,10 +1731,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1572.0</v>
+        <v>1522.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1199,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1573.0</v>
+        <v>1523.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1216,10 +1765,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1574.0</v>
+        <v>1524.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1233,10 +1782,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1575.0</v>
+        <v>1525.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1250,10 +1799,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1576.0</v>
+        <v>1526.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -1267,10 +1816,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1577.0</v>
+        <v>1527.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1284,10 +1833,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1578.0</v>
+        <v>1528.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1301,10 +1850,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1579.0</v>
+        <v>1529.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -1318,10 +1867,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1580.0</v>
+        <v>1530.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1335,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1581.0</v>
+        <v>1531.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -1352,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1582.0</v>
+        <v>1532.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -1369,10 +1918,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1583.0</v>
+        <v>1533.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -1386,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1584.0</v>
+        <v>1534.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -1403,10 +1952,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1585.0</v>
+        <v>1535.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -1420,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1586.0</v>
+        <v>1536.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -1437,10 +1986,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1587.0</v>
+        <v>1537.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -1454,10 +2003,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1588.0</v>
+        <v>1538.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -1471,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.0</v>
+        <v>1539.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1488,10 +2037,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1590.0</v>
+        <v>1540.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1505,10 +2054,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1591.0</v>
+        <v>1541.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1522,10 +2071,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1592.0</v>
+        <v>1542.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1539,10 +2088,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1593.0</v>
+        <v>1543.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -1556,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1594.0</v>
+        <v>1544.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
@@ -1573,10 +2122,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1595.0</v>
+        <v>1545.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -1590,10 +2139,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1596.0</v>
+        <v>1546.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1607,10 +2156,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1597.0</v>
+        <v>1547.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -1624,10 +2173,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1598.0</v>
+        <v>1548.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -1641,10 +2190,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1599.0</v>
+        <v>1549.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
@@ -1658,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1600.0</v>
+        <v>1550.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
@@ -1675,10 +2224,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1601.0</v>
+        <v>1551.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54">
@@ -1692,10 +2241,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1602.0</v>
+        <v>1552.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
@@ -1709,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1603.0</v>
+        <v>1553.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
@@ -1726,10 +2275,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1604.0</v>
+        <v>1554.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -1743,10 +2292,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1605.0</v>
+        <v>1555.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
@@ -1760,10 +2309,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1606.0</v>
+        <v>1556.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1777,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1607.0</v>
+        <v>1557.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -1794,10 +2343,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1608.0</v>
+        <v>1558.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
@@ -1811,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1609.0</v>
+        <v>1559.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
@@ -1828,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1610.0</v>
+        <v>1560.0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -1845,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1611.0</v>
+        <v>1561.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
@@ -1862,10 +2411,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1612.0</v>
+        <v>1562.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -1879,10 +2428,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1613.0</v>
+        <v>1563.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -1896,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1614.0</v>
+        <v>1564.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67">
@@ -1913,10 +2462,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1615.0</v>
+        <v>1565.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68">
@@ -1930,10 +2479,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1616.0</v>
+        <v>1566.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69">
@@ -1947,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1617.0</v>
+        <v>1567.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70">
@@ -1964,10 +2513,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1618.0</v>
+        <v>1568.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71">
@@ -1981,10 +2530,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1619.0</v>
+        <v>1569.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
@@ -1998,10 +2547,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1620.0</v>
+        <v>1570.0</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
@@ -2015,10 +2564,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1621.0</v>
+        <v>1571.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74">
@@ -2032,10 +2581,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1622.0</v>
+        <v>1572.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75">
@@ -2049,10 +2598,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1623.0</v>
+        <v>1573.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76">
@@ -2066,10 +2615,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1624.0</v>
+        <v>1574.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77">
@@ -2083,10 +2632,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1625.0</v>
+        <v>1575.0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -2100,10 +2649,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1626.0</v>
+        <v>1576.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
@@ -2117,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1627.0</v>
+        <v>1577.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
@@ -2134,10 +2683,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1628.0</v>
+        <v>1578.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
@@ -2151,10 +2700,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1629.0</v>
+        <v>1579.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
@@ -2168,10 +2717,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1630.0</v>
+        <v>1580.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -2185,10 +2734,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1631.0</v>
+        <v>1581.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
@@ -2202,10 +2751,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1632.0</v>
+        <v>1582.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -2219,10 +2768,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1633.0</v>
+        <v>1583.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -2236,10 +2785,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1634.0</v>
+        <v>1584.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
@@ -2253,10 +2802,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1635.0</v>
+        <v>1585.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
@@ -2270,10 +2819,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1636.0</v>
+        <v>1586.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
@@ -2287,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1637.0</v>
+        <v>1587.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
@@ -2304,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1638.0</v>
+        <v>1588.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
@@ -2321,10 +2870,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1639.0</v>
+        <v>1589.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
@@ -2338,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1640.0</v>
+        <v>1590.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93">
@@ -2355,10 +2904,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1641.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94">
@@ -2372,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1642.0</v>
+        <v>1592.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
@@ -2389,10 +2938,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1643.0</v>
+        <v>1593.0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
@@ -2406,10 +2955,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1644.0</v>
+        <v>1594.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97">
@@ -2423,10 +2972,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1645.0</v>
+        <v>1595.0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
@@ -2440,10 +2989,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1646.0</v>
+        <v>1596.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
@@ -2457,10 +3006,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1647.0</v>
+        <v>1597.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
@@ -2474,10 +3023,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1648.0</v>
+        <v>1598.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
@@ -2491,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1649.0</v>
+        <v>1599.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
@@ -2508,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1650.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
@@ -2525,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1651.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
@@ -2542,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1652.0</v>
+        <v>1602.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
@@ -2559,10 +3108,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1653.0</v>
+        <v>1603.0</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -2576,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1654.0</v>
+        <v>1604.0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
@@ -2593,10 +3142,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1655.0</v>
+        <v>1605.0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
@@ -2610,10 +3159,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1656.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
@@ -2627,10 +3176,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1657.0</v>
+        <v>1607.0</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
@@ -2644,10 +3193,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1658.0</v>
+        <v>1608.0</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
@@ -2661,10 +3210,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1659.0</v>
+        <v>1609.0</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -2678,10 +3227,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1660.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
@@ -2695,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1661.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
@@ -2712,10 +3261,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1662.0</v>
+        <v>1612.0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
@@ -2729,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1663.0</v>
+        <v>1613.0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116">
@@ -2746,10 +3295,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1664.0</v>
+        <v>1614.0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117">
@@ -2763,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1665.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
@@ -2780,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1666.0</v>
+        <v>1616.0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119">
@@ -2797,10 +3346,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1667.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120">
@@ -2814,10 +3363,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1668.0</v>
+        <v>1618.0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121">
@@ -2831,10 +3380,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1669.0</v>
+        <v>1619.0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -2848,10 +3397,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1670.0</v>
+        <v>1620.0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
@@ -2865,10 +3414,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1671.0</v>
+        <v>1621.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124">
@@ -2882,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1672.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
@@ -2899,10 +3448,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1673.0</v>
+        <v>1623.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
@@ -2916,10 +3465,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1674.0</v>
+        <v>1624.0</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
@@ -2933,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1675.0</v>
+        <v>1625.0</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
@@ -2950,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1676.0</v>
+        <v>1626.0</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
@@ -2967,10 +3516,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1677.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
@@ -2984,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1678.0</v>
+        <v>1628.0</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
@@ -3001,10 +3550,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1679.0</v>
+        <v>1629.0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
@@ -3018,10 +3567,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1680.0</v>
+        <v>1630.0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133">
@@ -3035,10 +3584,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1681.0</v>
+        <v>1631.0</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
@@ -3052,10 +3601,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1682.0</v>
+        <v>1632.0</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
@@ -3069,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1683.0</v>
+        <v>1633.0</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136">
@@ -3086,10 +3635,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1684.0</v>
+        <v>1634.0</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137">
@@ -3103,10 +3652,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1685.0</v>
+        <v>1635.0</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138">
@@ -3120,10 +3669,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1686.0</v>
+        <v>1636.0</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139">
@@ -3137,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1687.0</v>
+        <v>1637.0</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
@@ -3154,10 +3703,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1688.0</v>
+        <v>1638.0</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141">
@@ -3171,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1689.0</v>
+        <v>1639.0</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142">
@@ -3188,10 +3737,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1690.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143">
@@ -3205,10 +3754,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1691.0</v>
+        <v>1641.0</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144">
@@ -3222,10 +3771,10 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1692.0</v>
+        <v>1642.0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145">
@@ -3239,10 +3788,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1693.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146">
@@ -3256,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1694.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -3273,10 +3822,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1695.0</v>
+        <v>1645.0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148">
@@ -3290,10 +3839,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1696.0</v>
+        <v>1646.0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149">
@@ -3307,10 +3856,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1697.0</v>
+        <v>1647.0</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
@@ -3324,10 +3873,10 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1698.0</v>
+        <v>1648.0</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
@@ -3341,10 +3890,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1699.0</v>
+        <v>1649.0</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
@@ -3358,10 +3907,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1700.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153">
@@ -3375,10 +3924,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1701.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154">
@@ -3392,10 +3941,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1702.0</v>
+        <v>1652.0</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155">
@@ -3409,10 +3958,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1703.0</v>
+        <v>1653.0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156">
@@ -3426,10 +3975,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1704.0</v>
+        <v>1654.0</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
@@ -3443,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1705.0</v>
+        <v>1655.0</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158">
@@ -3460,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1706.0</v>
+        <v>1656.0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
@@ -3477,10 +4026,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1707.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160">
@@ -3494,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1708.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
@@ -3511,10 +4060,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1709.0</v>
+        <v>1659.0</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
@@ -3528,10 +4077,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1710.0</v>
+        <v>1660.0</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
@@ -3545,10 +4094,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1711.0</v>
+        <v>1661.0</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164">
@@ -3562,10 +4111,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1712.0</v>
+        <v>1662.0</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165">
@@ -3579,10 +4128,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1713.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
@@ -3596,10 +4145,10 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1714.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
@@ -3613,10 +4162,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1715.0</v>
+        <v>1665.0</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168">
@@ -3630,10 +4179,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1716.0</v>
+        <v>1666.0</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169">
@@ -3647,10 +4196,10 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1717.0</v>
+        <v>1667.0</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
@@ -3664,10 +4213,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1718.0</v>
+        <v>1668.0</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171">
@@ -3681,10 +4230,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1719.0</v>
+        <v>1669.0</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172">
@@ -3698,10 +4247,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1720.0</v>
+        <v>1670.0</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
@@ -3715,10 +4264,10 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1721.0</v>
+        <v>1671.0</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
@@ -3732,10 +4281,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1722.0</v>
+        <v>1672.0</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175">
@@ -3749,10 +4298,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1723.0</v>
+        <v>1673.0</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176">
@@ -3766,10 +4315,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1724.0</v>
+        <v>1674.0</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177">
@@ -3783,10 +4332,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1725.0</v>
+        <v>1675.0</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178">
@@ -3800,10 +4349,10 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1726.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179">
@@ -3817,10 +4366,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1727.0</v>
+        <v>1677.0</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3834,10 +4383,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1728.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181">
@@ -3851,10 +4400,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1729.0</v>
+        <v>1679.0</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182">
@@ -3868,10 +4417,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1730.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183">
@@ -3885,10 +4434,10 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1731.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="184">
@@ -3902,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1732.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185">
@@ -3919,10 +4468,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1733.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186">
@@ -3936,10 +4485,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1734.0</v>
+        <v>1684.0</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187">
@@ -3953,10 +4502,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1735.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188">
@@ -3970,10 +4519,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1736.0</v>
+        <v>1686.0</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189">
@@ -3987,10 +4536,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1737.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190">
@@ -4004,10 +4553,10 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1738.0</v>
+        <v>1688.0</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191">
@@ -4021,10 +4570,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1739.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192">
@@ -4038,10 +4587,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1740.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193">
@@ -4055,10 +4604,10 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1741.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
@@ -4072,10 +4621,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1742.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195">
@@ -4089,10 +4638,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1743.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196">
@@ -4106,10 +4655,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1744.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197">
@@ -4123,10 +4672,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1745.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198">
@@ -4140,10 +4689,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1746.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199">
@@ -4157,10 +4706,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1747.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200">
@@ -4174,10 +4723,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1748.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201">
@@ -4191,10 +4740,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1749.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202">
@@ -4208,10 +4757,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1750.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
@@ -4225,10 +4774,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1751.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204">
@@ -4242,10 +4791,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1752.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205">
@@ -4259,10 +4808,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1753.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206">
@@ -4276,10 +4825,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1754.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207">
@@ -4293,10 +4842,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1755.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
@@ -4310,10 +4859,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1756.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209">
@@ -4327,10 +4876,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1757.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210">
@@ -4344,10 +4893,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>1758.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211">
@@ -4361,10 +4910,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1759.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212">
@@ -4378,10 +4927,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1760.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="213">
@@ -4395,10 +4944,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1761.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214">
@@ -4412,10 +4961,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1762.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215">
@@ -4429,10 +4978,10 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1763.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216">
@@ -4446,10 +4995,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1764.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217">
@@ -4463,10 +5012,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1765.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
@@ -4480,10 +5029,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1766.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="219">
@@ -4497,10 +5046,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1767.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="220">
@@ -4514,10 +5063,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1768.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221">
@@ -4531,10 +5080,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1769.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222">
@@ -4548,10 +5097,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1770.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="223">
@@ -4565,10 +5114,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1771.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
     </row>
     <row r="224">
@@ -4582,10 +5131,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1772.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225">
@@ -4599,10 +5148,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1773.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="226">
@@ -4616,10 +5165,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1774.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227">
@@ -4633,10 +5182,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1775.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E227" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
     </row>
     <row r="228">
@@ -4650,10 +5199,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1776.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229">
@@ -4667,10 +5216,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1777.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230">
@@ -4684,10 +5233,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1778.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="231">
@@ -4701,10 +5250,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1779.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="232">
@@ -4718,10 +5267,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1780.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="233">
@@ -4735,10 +5284,10 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1781.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="234">
@@ -4752,10 +5301,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1782.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235">
@@ -4769,10 +5318,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1783.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236">
@@ -4786,10 +5335,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1784.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="237">
@@ -4803,10 +5352,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1785.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E237" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238">
@@ -4820,10 +5369,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1786.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E238" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="239">
@@ -4837,10 +5386,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1787.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240">
@@ -4854,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>1788.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
     </row>
     <row r="241">
@@ -4871,10 +5420,10 @@
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1789.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242">
@@ -4888,10 +5437,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1790.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243">
@@ -4905,10 +5454,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>1791.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="244">
@@ -4922,10 +5471,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>1792.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="245">
@@ -4939,10 +5488,10 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>1793.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246">
@@ -4956,10 +5505,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1794.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="247">
@@ -4973,10 +5522,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>1795.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248">
@@ -4990,10 +5539,10 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>1796.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
     </row>
     <row r="249">
@@ -5007,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>1797.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
     </row>
     <row r="250">
@@ -5024,10 +5573,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1798.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
     </row>
     <row r="251">
@@ -5041,10 +5590,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1799.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
     </row>
     <row r="252">
@@ -5058,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>1800.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E252" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253">
@@ -5075,10 +5624,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>1801.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E253" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="254">
@@ -5092,10 +5641,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1802.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E254" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="255">
@@ -5109,10 +5658,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>1803.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E255" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256">
@@ -5126,10 +5675,10 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>1804.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E256" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257">
@@ -5143,10 +5692,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>1805.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E257" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="258">
@@ -5160,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>1806.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E258" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
     </row>
     <row r="259">
@@ -5177,10 +5726,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1807.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E259" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
     </row>
     <row r="260">
@@ -5194,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1808.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E260" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="261">
@@ -5211,10 +5760,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>1809.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E261" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
     </row>
     <row r="262">
@@ -5228,10 +5777,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1810.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E262" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
     </row>
     <row r="263">
@@ -5245,10 +5794,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1811.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E263" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="264">
@@ -5262,10 +5811,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>1812.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E264" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265">
@@ -5279,10 +5828,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1813.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E265" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
     </row>
     <row r="266">
@@ -5296,10 +5845,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1814.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E266" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
     </row>
     <row r="267">
@@ -5313,10 +5862,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1815.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E267" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
     </row>
     <row r="268">
@@ -5330,10 +5879,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1816.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E268" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="269">
@@ -5347,10 +5896,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1817.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E269" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="270">
@@ -5364,10 +5913,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>1818.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
     </row>
     <row r="271">
@@ -5381,10 +5930,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1819.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E271" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272">
@@ -5398,10 +5947,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1820.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E272" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="273">
@@ -5415,10 +5964,10 @@
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1821.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E273" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
     </row>
     <row r="274">
@@ -5432,10 +5981,10 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1822.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E274" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
     </row>
     <row r="275">
@@ -5449,10 +5998,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1823.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
     </row>
     <row r="276">
@@ -5466,10 +6015,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1824.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E276" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277">
@@ -5483,10 +6032,10 @@
         <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1825.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E277" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
     <row r="278">
@@ -5500,10 +6049,10 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1826.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E278" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
     </row>
     <row r="279">
@@ -5517,10 +6066,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1827.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E279" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280">
@@ -5534,10 +6083,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1828.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E280" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="281">
@@ -5551,10 +6100,10 @@
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1829.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282">
@@ -5568,10 +6117,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1830.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E282" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
     </row>
     <row r="283">
@@ -5585,10 +6134,10 @@
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1831.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E283" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="284">
@@ -5602,10 +6151,10 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1832.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E284" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="285">
@@ -5619,10 +6168,10 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1833.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E285" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286">
@@ -5636,10 +6185,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1834.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E286" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
     </row>
     <row r="287">
@@ -5653,10 +6202,10 @@
         <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1835.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E287" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="288">
@@ -5670,10 +6219,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>1836.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E288" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289">
@@ -5687,10 +6236,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>1837.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E289" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="290">
@@ -5704,10 +6253,10 @@
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>1838.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E290" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
@@ -5721,10 +6270,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>1839.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E291" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="292">
@@ -5738,10 +6287,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>1840.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E292" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="293">
@@ -5755,10 +6304,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>1841.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E293" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
     </row>
     <row r="294">
@@ -5772,10 +6321,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>1842.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E294" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
     </row>
     <row r="295">
@@ -5789,10 +6338,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>1843.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E295" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
     </row>
     <row r="296">
@@ -5806,10 +6355,10 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>1844.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E296" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297">
@@ -5823,10 +6372,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>1845.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E297" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
     </row>
     <row r="298">
@@ -5840,10 +6389,10 @@
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>1846.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E298" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="299">
@@ -5857,10 +6406,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>1847.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E299" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300">
@@ -5874,10 +6423,10 @@
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>1848.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E300" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301">
@@ -5891,10 +6440,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>1849.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E301" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
     </row>
     <row r="302">
@@ -5908,10 +6457,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>1850.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E302" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
     </row>
     <row r="303">
@@ -5925,10 +6474,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>1851.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E303" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
     </row>
     <row r="304">
@@ -5942,10 +6491,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>1852.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E304" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
     </row>
     <row r="305">
@@ -5959,10 +6508,10 @@
         <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>1853.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E305" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="306">
@@ -5976,10 +6525,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>1854.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E306" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
     </row>
     <row r="307">
@@ -5993,10 +6542,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>1855.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E307" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
     </row>
     <row r="308">
@@ -6010,10 +6559,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>1856.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E308" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309">
@@ -6027,10 +6576,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>1857.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E309" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
     </row>
     <row r="310">
@@ -6044,10 +6593,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>1858.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E310" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
     </row>
     <row r="311">
@@ -6061,10 +6610,10 @@
         <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>1859.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E311" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
     </row>
     <row r="312">
@@ -6078,10 +6627,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>1860.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E312" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="313">
@@ -6095,10 +6644,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1861.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E313" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
     </row>
     <row r="314">
@@ -6112,10 +6661,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1862.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E314" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
     </row>
     <row r="315">
@@ -6129,10 +6678,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>1863.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E315" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
     </row>
     <row r="316">
@@ -6146,10 +6695,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>1864.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E316" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317">
@@ -6163,10 +6712,10 @@
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>1865.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E317" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="318">
@@ -6180,10 +6729,10 @@
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>1866.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E318" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
     </row>
     <row r="319">
@@ -6197,10 +6746,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>1867.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E319" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
     </row>
     <row r="320">
@@ -6214,10 +6763,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>1868.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E320" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321">
@@ -6231,10 +6780,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>1869.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E321" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
     </row>
     <row r="322">
@@ -6248,10 +6797,10 @@
         <v>6</v>
       </c>
       <c r="D322" t="n">
-        <v>1870.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E322" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
     </row>
     <row r="323">
@@ -6265,10 +6814,10 @@
         <v>6</v>
       </c>
       <c r="D323" t="n">
-        <v>1871.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E323" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
     </row>
     <row r="324">
@@ -6282,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>1872.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E324" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="325">
@@ -6299,10 +6848,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>1873.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E325" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="326">
@@ -6316,10 +6865,10 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>1874.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E326" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="327">
@@ -6333,10 +6882,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>1875.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E327" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="328">
@@ -6350,10 +6899,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>1876.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E328" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329">
@@ -6367,10 +6916,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>1877.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E329" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330">
@@ -6384,10 +6933,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>1878.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E330" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="331">
@@ -6401,10 +6950,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>1879.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E331" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
     </row>
     <row r="332">
@@ -6418,10 +6967,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>1880.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E332" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
     </row>
     <row r="333">
@@ -6435,10 +6984,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>1881.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E333" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="334">
@@ -6452,10 +7001,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>1882.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E334" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="335">
@@ -6469,10 +7018,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>1883.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E335" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336">
@@ -6486,10 +7035,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>1884.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E336" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
     </row>
     <row r="337">
@@ -6503,10 +7052,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>1885.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E337" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
     </row>
     <row r="338">
@@ -6520,10 +7069,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>1886.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E338" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="339">
@@ -6537,10 +7086,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>1887.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E339" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="340">
@@ -6554,10 +7103,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>1888.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E340" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="341">
@@ -6571,10 +7120,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>1889.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E341" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
     </row>
     <row r="342">
@@ -6588,10 +7137,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>1890.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E342" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="343">
@@ -6605,10 +7154,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>1891.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E343" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
     </row>
     <row r="344">
@@ -6622,10 +7171,10 @@
         <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>1892.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E344" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
     </row>
     <row r="345">
@@ -6639,10 +7188,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>1893.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E345" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="346">
@@ -6656,10 +7205,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>1894.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E346" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
     </row>
     <row r="347">
@@ -6673,10 +7222,10 @@
         <v>6</v>
       </c>
       <c r="D347" t="n">
-        <v>1895.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E347" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348">
@@ -6690,10 +7239,10 @@
         <v>6</v>
       </c>
       <c r="D348" t="n">
-        <v>1896.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E348" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="349">
@@ -6707,10 +7256,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>1897.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E349" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="350">
@@ -6724,10 +7273,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>1898.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E350" t="s">
-        <v>114</v>
+        <v>249</v>
       </c>
     </row>
     <row r="351">
@@ -6741,10 +7290,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>1899.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E351" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
     </row>
     <row r="352">
@@ -6758,10 +7307,10 @@
         <v>6</v>
       </c>
       <c r="D352" t="n">
-        <v>1900.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E352" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="353">
@@ -6775,10 +7324,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>1901.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E353" t="s">
-        <v>117</v>
+        <v>251</v>
       </c>
     </row>
     <row r="354">
@@ -6792,10 +7341,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>1902.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E354" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="355">
@@ -6809,10 +7358,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>1903.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E355" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
     </row>
     <row r="356">
@@ -6826,10 +7375,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>1904.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E356" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="357">
@@ -6843,10 +7392,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>1905.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E357" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
     </row>
     <row r="358">
@@ -6860,10 +7409,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>1906.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E358" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
     </row>
     <row r="359">
@@ -6877,10 +7426,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>1907.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E359" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360">
@@ -6894,10 +7443,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>1908.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E360" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
     </row>
     <row r="361">
@@ -6911,10 +7460,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>1909.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E361" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
     </row>
     <row r="362">
@@ -6928,10 +7477,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>1910.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E362" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
     </row>
     <row r="363">
@@ -6945,10 +7494,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>1911.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E363" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
     </row>
     <row r="364">
@@ -6962,10 +7511,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>1912.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E364" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
     </row>
     <row r="365">
@@ -6979,10 +7528,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>1913.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E365" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
     </row>
     <row r="366">
@@ -6996,10 +7545,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>1914.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E366" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
     </row>
     <row r="367">
@@ -7013,10 +7562,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>1915.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E367" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
     </row>
     <row r="368">
@@ -7030,10 +7579,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>1916.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E368" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
     </row>
     <row r="369">
@@ -7047,10 +7596,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>1917.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E369" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
     </row>
     <row r="370">
@@ -7064,10 +7613,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>1918.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E370" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
     </row>
     <row r="371">
@@ -7081,10 +7630,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>1919.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E371" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="372">
@@ -7098,10 +7647,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>1920.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E372" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373">
@@ -7115,10 +7664,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>1921.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E373" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
     </row>
     <row r="374">
@@ -7132,10 +7681,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>1922.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E374" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
     </row>
     <row r="375">
@@ -7149,10 +7698,10 @@
         <v>6</v>
       </c>
       <c r="D375" t="n">
-        <v>1923.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E375" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
     </row>
     <row r="376">
@@ -7166,10 +7715,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>1924.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E376" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
     </row>
     <row r="377">
@@ -7183,10 +7732,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>1925.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E377" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
     </row>
     <row r="378">
@@ -7200,10 +7749,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>1926.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E378" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
     </row>
     <row r="379">
@@ -7217,10 +7766,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>1927.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E379" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
     </row>
     <row r="380">
@@ -7234,10 +7783,10 @@
         <v>6</v>
       </c>
       <c r="D380" t="n">
-        <v>1928.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E380" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
     </row>
     <row r="381">
@@ -7251,10 +7800,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>1929.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E381" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
     </row>
     <row r="382">
@@ -7268,10 +7817,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>1930.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E382" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
     </row>
     <row r="383">
@@ -7285,10 +7834,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>1931.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E383" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
     </row>
     <row r="384">
@@ -7302,10 +7851,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>1932.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E384" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
     </row>
     <row r="385">
@@ -7319,10 +7868,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>1933.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E385" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
     </row>
     <row r="386">
@@ -7336,10 +7885,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>1934.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E386" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
     </row>
     <row r="387">
@@ -7353,10 +7902,10 @@
         <v>6</v>
       </c>
       <c r="D387" t="n">
-        <v>1935.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E387" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
     </row>
     <row r="388">
@@ -7370,10 +7919,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>1936.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E388" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
     </row>
     <row r="389">
@@ -7387,10 +7936,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>1937.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E389" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
     </row>
     <row r="390">
@@ -7404,10 +7953,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>1938.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E390" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
     </row>
     <row r="391">
@@ -7421,10 +7970,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>1939.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E391" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
     </row>
     <row r="392">
@@ -7438,10 +7987,10 @@
         <v>6</v>
       </c>
       <c r="D392" t="n">
-        <v>1940.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E392" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
     </row>
     <row r="393">
@@ -7455,10 +8004,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>1941.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E393" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
     </row>
     <row r="394">
@@ -7472,10 +8021,10 @@
         <v>6</v>
       </c>
       <c r="D394" t="n">
-        <v>1942.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E394" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
     </row>
     <row r="395">
@@ -7489,10 +8038,10 @@
         <v>6</v>
       </c>
       <c r="D395" t="n">
-        <v>1943.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E395" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
     </row>
     <row r="396">
@@ -7506,10 +8055,10 @@
         <v>6</v>
       </c>
       <c r="D396" t="n">
-        <v>1944.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E396" t="s">
-        <v>160</v>
+        <v>287</v>
       </c>
     </row>
     <row r="397">
@@ -7523,10 +8072,10 @@
         <v>6</v>
       </c>
       <c r="D397" t="n">
-        <v>1945.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E397" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
     </row>
     <row r="398">
@@ -7540,10 +8089,10 @@
         <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>1946.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E398" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
     </row>
     <row r="399">
@@ -7557,10 +8106,10 @@
         <v>6</v>
       </c>
       <c r="D399" t="n">
-        <v>1947.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E399" t="s">
-        <v>163</v>
+        <v>290</v>
       </c>
     </row>
     <row r="400">
@@ -7574,10 +8123,10 @@
         <v>6</v>
       </c>
       <c r="D400" t="n">
-        <v>1948.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E400" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
     </row>
     <row r="401">
@@ -7591,10 +8140,10 @@
         <v>6</v>
       </c>
       <c r="D401" t="n">
-        <v>1949.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E401" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
     </row>
     <row r="402">
@@ -7608,10 +8157,10 @@
         <v>6</v>
       </c>
       <c r="D402" t="n">
-        <v>1950.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E402" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
     </row>
     <row r="403">
@@ -7625,10 +8174,10 @@
         <v>6</v>
       </c>
       <c r="D403" t="n">
-        <v>1951.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E403" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
     </row>
     <row r="404">
@@ -7642,10 +8191,10 @@
         <v>6</v>
       </c>
       <c r="D404" t="n">
-        <v>1952.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E404" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
     </row>
     <row r="405">
@@ -7659,10 +8208,10 @@
         <v>6</v>
       </c>
       <c r="D405" t="n">
-        <v>1953.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E405" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
     </row>
     <row r="406">
@@ -7676,10 +8225,10 @@
         <v>6</v>
       </c>
       <c r="D406" t="n">
-        <v>1954.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E406" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
     </row>
     <row r="407">
@@ -7693,10 +8242,10 @@
         <v>6</v>
       </c>
       <c r="D407" t="n">
-        <v>1955.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E407" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
     </row>
     <row r="408">
@@ -7710,10 +8259,10 @@
         <v>6</v>
       </c>
       <c r="D408" t="n">
-        <v>1956.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E408" t="s">
-        <v>172</v>
+        <v>299</v>
       </c>
     </row>
     <row r="409">
@@ -7727,10 +8276,10 @@
         <v>6</v>
       </c>
       <c r="D409" t="n">
-        <v>1957.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E409" t="s">
-        <v>173</v>
+        <v>300</v>
       </c>
     </row>
     <row r="410">
@@ -7744,10 +8293,10 @@
         <v>6</v>
       </c>
       <c r="D410" t="n">
-        <v>1958.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E410" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
     </row>
     <row r="411">
@@ -7761,10 +8310,10 @@
         <v>6</v>
       </c>
       <c r="D411" t="n">
-        <v>1959.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E411" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
     </row>
     <row r="412">
@@ -7778,10 +8327,10 @@
         <v>6</v>
       </c>
       <c r="D412" t="n">
-        <v>1960.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E412" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
     </row>
     <row r="413">
@@ -7795,10 +8344,10 @@
         <v>6</v>
       </c>
       <c r="D413" t="n">
-        <v>1961.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E413" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
     </row>
     <row r="414">
@@ -7812,10 +8361,10 @@
         <v>6</v>
       </c>
       <c r="D414" t="n">
-        <v>1962.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E414" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
     </row>
     <row r="415">
@@ -7829,10 +8378,10 @@
         <v>6</v>
       </c>
       <c r="D415" t="n">
-        <v>1963.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E415" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
     </row>
     <row r="416">
@@ -7846,10 +8395,10 @@
         <v>6</v>
       </c>
       <c r="D416" t="n">
-        <v>1964.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E416" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
     </row>
     <row r="417">
@@ -7863,10 +8412,10 @@
         <v>6</v>
       </c>
       <c r="D417" t="n">
-        <v>1965.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E417" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
     </row>
     <row r="418">
@@ -7880,10 +8429,10 @@
         <v>6</v>
       </c>
       <c r="D418" t="n">
-        <v>1966.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E418" t="s">
-        <v>182</v>
+        <v>309</v>
       </c>
     </row>
     <row r="419">
@@ -7897,10 +8446,10 @@
         <v>6</v>
       </c>
       <c r="D419" t="n">
-        <v>1967.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E419" t="s">
-        <v>183</v>
+        <v>310</v>
       </c>
     </row>
     <row r="420">
@@ -7914,10 +8463,10 @@
         <v>6</v>
       </c>
       <c r="D420" t="n">
-        <v>1968.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E420" t="s">
-        <v>184</v>
+        <v>311</v>
       </c>
     </row>
     <row r="421">
@@ -7931,10 +8480,10 @@
         <v>6</v>
       </c>
       <c r="D421" t="n">
-        <v>1969.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E421" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
     </row>
     <row r="422">
@@ -7948,10 +8497,10 @@
         <v>6</v>
       </c>
       <c r="D422" t="n">
-        <v>1970.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E422" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
     </row>
     <row r="423">
@@ -7965,10 +8514,10 @@
         <v>6</v>
       </c>
       <c r="D423" t="n">
-        <v>1971.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E423" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
     </row>
     <row r="424">
@@ -7982,10 +8531,10 @@
         <v>6</v>
       </c>
       <c r="D424" t="n">
-        <v>1972.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E424" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
     </row>
     <row r="425">
@@ -7999,10 +8548,10 @@
         <v>6</v>
       </c>
       <c r="D425" t="n">
-        <v>1973.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E425" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
     </row>
     <row r="426">
@@ -8016,10 +8565,10 @@
         <v>6</v>
       </c>
       <c r="D426" t="n">
-        <v>1974.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E426" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
     </row>
     <row r="427">
@@ -8033,10 +8582,10 @@
         <v>6</v>
       </c>
       <c r="D427" t="n">
-        <v>1975.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E427" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
     </row>
     <row r="428">
@@ -8050,10 +8599,10 @@
         <v>6</v>
       </c>
       <c r="D428" t="n">
-        <v>1976.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E428" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
     </row>
     <row r="429">
@@ -8067,10 +8616,10 @@
         <v>6</v>
       </c>
       <c r="D429" t="n">
-        <v>1977.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E429" t="s">
-        <v>193</v>
+        <v>320</v>
       </c>
     </row>
     <row r="430">
@@ -8084,10 +8633,10 @@
         <v>6</v>
       </c>
       <c r="D430" t="n">
-        <v>1978.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E430" t="s">
-        <v>194</v>
+        <v>321</v>
       </c>
     </row>
     <row r="431">
@@ -8101,10 +8650,10 @@
         <v>6</v>
       </c>
       <c r="D431" t="n">
-        <v>1979.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E431" t="s">
-        <v>195</v>
+        <v>322</v>
       </c>
     </row>
     <row r="432">
@@ -8118,10 +8667,10 @@
         <v>6</v>
       </c>
       <c r="D432" t="n">
-        <v>1980.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E432" t="s">
-        <v>196</v>
+        <v>323</v>
       </c>
     </row>
     <row r="433">
@@ -8135,10 +8684,10 @@
         <v>6</v>
       </c>
       <c r="D433" t="n">
-        <v>1981.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E433" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
     </row>
     <row r="434">
@@ -8152,10 +8701,10 @@
         <v>6</v>
       </c>
       <c r="D434" t="n">
-        <v>1982.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E434" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
     </row>
     <row r="435">
@@ -8169,10 +8718,10 @@
         <v>6</v>
       </c>
       <c r="D435" t="n">
-        <v>1983.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E435" t="s">
-        <v>199</v>
+        <v>326</v>
       </c>
     </row>
     <row r="436">
@@ -8186,10 +8735,10 @@
         <v>6</v>
       </c>
       <c r="D436" t="n">
-        <v>1984.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E436" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
     </row>
     <row r="437">
@@ -8203,10 +8752,10 @@
         <v>6</v>
       </c>
       <c r="D437" t="n">
-        <v>1985.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E437" t="s">
-        <v>201</v>
+        <v>328</v>
       </c>
     </row>
     <row r="438">
@@ -8220,10 +8769,10 @@
         <v>6</v>
       </c>
       <c r="D438" t="n">
-        <v>1986.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E438" t="s">
-        <v>202</v>
+        <v>329</v>
       </c>
     </row>
     <row r="439">
@@ -8237,10 +8786,10 @@
         <v>6</v>
       </c>
       <c r="D439" t="n">
-        <v>1987.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E439" t="s">
-        <v>203</v>
+        <v>330</v>
       </c>
     </row>
     <row r="440">
@@ -8254,10 +8803,10 @@
         <v>6</v>
       </c>
       <c r="D440" t="n">
-        <v>1988.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E440" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
     </row>
     <row r="441">
@@ -8271,10 +8820,10 @@
         <v>6</v>
       </c>
       <c r="D441" t="n">
-        <v>1989.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E441" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
     </row>
     <row r="442">
@@ -8288,10 +8837,10 @@
         <v>6</v>
       </c>
       <c r="D442" t="n">
-        <v>1990.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E442" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
     </row>
     <row r="443">
@@ -8305,10 +8854,10 @@
         <v>6</v>
       </c>
       <c r="D443" t="n">
-        <v>1991.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E443" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
     </row>
     <row r="444">
@@ -8322,10 +8871,10 @@
         <v>6</v>
       </c>
       <c r="D444" t="n">
-        <v>1992.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E444" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
     </row>
     <row r="445">
@@ -8339,10 +8888,10 @@
         <v>6</v>
       </c>
       <c r="D445" t="n">
-        <v>1993.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E445" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
     </row>
     <row r="446">
@@ -8356,10 +8905,10 @@
         <v>6</v>
       </c>
       <c r="D446" t="n">
-        <v>1994.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E446" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
     </row>
     <row r="447">
@@ -8373,10 +8922,10 @@
         <v>6</v>
       </c>
       <c r="D447" t="n">
-        <v>1995.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E447" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
     </row>
     <row r="448">
@@ -8390,10 +8939,10 @@
         <v>6</v>
       </c>
       <c r="D448" t="n">
-        <v>1996.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E448" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
     </row>
     <row r="449">
@@ -8407,10 +8956,10 @@
         <v>6</v>
       </c>
       <c r="D449" t="n">
-        <v>1997.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E449" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
     </row>
     <row r="450">
@@ -8424,10 +8973,10 @@
         <v>6</v>
       </c>
       <c r="D450" t="n">
-        <v>1998.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E450" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
     </row>
     <row r="451">
@@ -8441,10 +8990,10 @@
         <v>6</v>
       </c>
       <c r="D451" t="n">
-        <v>1999.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E451" t="s">
-        <v>215</v>
+        <v>342</v>
       </c>
     </row>
     <row r="452">
@@ -8458,10 +9007,10 @@
         <v>6</v>
       </c>
       <c r="D452" t="n">
-        <v>2000.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E452" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
     </row>
     <row r="453">
@@ -8475,10 +9024,10 @@
         <v>6</v>
       </c>
       <c r="D453" t="n">
-        <v>2001.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E453" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
     </row>
     <row r="454">
@@ -8492,10 +9041,10 @@
         <v>6</v>
       </c>
       <c r="D454" t="n">
-        <v>2002.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E454" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
     </row>
     <row r="455">
@@ -8509,10 +9058,10 @@
         <v>6</v>
       </c>
       <c r="D455" t="n">
-        <v>2003.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E455" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
     </row>
     <row r="456">
@@ -8526,10 +9075,10 @@
         <v>6</v>
       </c>
       <c r="D456" t="n">
-        <v>2004.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E456" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
     </row>
     <row r="457">
@@ -8543,10 +9092,10 @@
         <v>6</v>
       </c>
       <c r="D457" t="n">
-        <v>2005.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E457" t="s">
-        <v>221</v>
+        <v>348</v>
       </c>
     </row>
     <row r="458">
@@ -8560,10 +9109,10 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>2006.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E458" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
     </row>
     <row r="459">
@@ -8577,10 +9126,10 @@
         <v>6</v>
       </c>
       <c r="D459" t="n">
-        <v>2007.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E459" t="s">
-        <v>223</v>
+        <v>350</v>
       </c>
     </row>
     <row r="460">
@@ -8594,10 +9143,10 @@
         <v>6</v>
       </c>
       <c r="D460" t="n">
-        <v>2008.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E460" t="s">
-        <v>224</v>
+        <v>351</v>
       </c>
     </row>
     <row r="461">
@@ -8611,10 +9160,10 @@
         <v>6</v>
       </c>
       <c r="D461" t="n">
-        <v>2009.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E461" t="s">
-        <v>225</v>
+        <v>352</v>
       </c>
     </row>
     <row r="462">
@@ -8628,10 +9177,962 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E462" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E463" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E464" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E465" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E466" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E467" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E468" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E469" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E470" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E471" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E472" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E473" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E474" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E475" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E476" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E477" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E478" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E479" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E480" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E481" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E482" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E483" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E484" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E485" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E486" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E487" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E488" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>5</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E489" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+      <c r="C490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E490" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B491" t="s">
+        <v>5</v>
+      </c>
+      <c r="C491" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E491" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+      <c r="C492" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E492" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E493" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C494" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E494" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B495" t="s">
+        <v>5</v>
+      </c>
+      <c r="C495" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E495" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E496" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E497" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E498" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>5</v>
+      </c>
+      <c r="C499" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E499" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B500" t="s">
+        <v>5</v>
+      </c>
+      <c r="C500" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E500" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E501" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B502" t="s">
+        <v>5</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E502" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B503" t="s">
+        <v>5</v>
+      </c>
+      <c r="C503" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E503" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E504" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B505" t="s">
+        <v>5</v>
+      </c>
+      <c r="C505" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E505" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E506" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C507" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E507" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B508" t="s">
+        <v>5</v>
+      </c>
+      <c r="C508" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E508" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B509" t="s">
+        <v>5</v>
+      </c>
+      <c r="C509" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E509" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B510" t="s">
+        <v>5</v>
+      </c>
+      <c r="C510" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E510" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C511" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E511" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E462" t="s">
-        <v>226</v>
+      <c r="E512" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -8649,50 +10150,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
